--- a/anc/ValueSet-anc-b9-de37.xlsx
+++ b/anc/ValueSet-anc-b9-de37.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T22:44:47+02:00</t>
+    <t>2025-07-10T12:22:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
